--- a/excel/template/print_invoice2.xlsx
+++ b/excel/template/print_invoice2.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanislav\git\adminbuy\excel\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="720" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="720"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$43</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -32,11 +39,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">+sec1</t>
+          <t>+sec1</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,11 +53,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">+secitem</t>
+          <t>-sec1</t>
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,11 +67,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">-sec1</t>
+          <t>+secitem</t>
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +81,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">-secitem</t>
+          <t>-secitem</t>
         </r>
       </text>
     </comment>
@@ -145,34 +152,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$руб.-419];[RED]\-#,##0.00\ [$руб.-419]"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$руб.-419];[Red]\-#,##0.00\ [$руб.-419]"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -182,7 +173,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -197,7 +188,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -232,156 +223,84 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color rgb="FF3C3C3C"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF3C3C3C"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3C3C3C"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3C3C3C"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Обычный 2" xfId="20" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -440,237 +359,663 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3C3C3C"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IQ10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4372469635628"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="1.10121457489879"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.4412955465587"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.72874493927126"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.17004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3603238866397"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.2388663967611"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="19.44140625" style="1"/>
+    <col min="2" max="2" width="16.88671875" style="1"/>
+    <col min="3" max="3" width="1.109375" style="1"/>
+    <col min="4" max="4" width="8.44140625" style="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="251" width="9.109375" style="1"/>
+    <col min="252" max="1019" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:251" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+    <row r="2" spans="1:251" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:251" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:251" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:251" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:251" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+    <row r="7" spans="1:251" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:251" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:251" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" spans="1:251" x14ac:dyDescent="0.3">
+      <c r="IQ10"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/excel/template/print_invoice2.xlsx
+++ b/excel/template/print_invoice2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$50</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
